--- a/biology/Botanique/Gagnepainia/Gagnepainia.xlsx
+++ b/biology/Botanique/Gagnepainia/Gagnepainia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gagnepainia est un genre de plantes à fleurs de la famille des Zingiberaceae originaire du sud-est asiatique. On en connaît actuellement trois espèces.
-Karl Moritz Schumann en fit la description en 1904 dans "Das Pflanzenreich. Regni vegetabilis conspectus" de Adolf Engler (1900)[1], en dédiant le genre à François Gagnepain, botaniste français.
+Karl Moritz Schumann en fit la description en 1904 dans "Das Pflanzenreich. Regni vegetabilis conspectus" de Adolf Engler (1900), en dédiant le genre à François Gagnepain, botaniste français.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 juil. 2010)[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 juil. 2010)
 Gagnepainia godefroyi (Baill.) K.Schum. (1904)
 Gagnepainia harmandii (Baill.) K.Schum. (1904)
 Gagnepainia thoreliana (Baill.) K.Schum. (1904)
-Selon NCBI  (17 juil. 2010)[3]
+Selon NCBI  (17 juil. 2010)
 Gagnepainia godefroyi
 Gagnepainia harmandii
 Gagnepainia thoreliana</t>
